--- a/SOCE.Library/SOCE.Library.UI/Resources/PMSchedule.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/PMSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9183939-A9F7-4F48-9A8B-E97A51C1E13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B0E03D-2B85-47DF-966A-CC0BE6BF9702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2582FE0-3F71-4BA9-B205-46A8D40FB995}"/>
   </bookViews>
@@ -35,9 +35,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +58,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -78,15 +87,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,46 +415,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3269DF3-8BF3-4EA3-8A09-902320A87CC5}">
-  <dimension ref="A1:I11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="41.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.25"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>